--- a/clcore_ig/output/StructureDefinition-SegundoApellido.xlsx
+++ b/clcore_ig/output/StructureDefinition-SegundoApellido.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -331,7 +331,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>Value of extension</t>
+    <t>Segundo apellido de la persona</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
